--- a/master/_downloads/3ff17f81b53f236f721f6f49d2ff19bb/Audit-AddABC.xlsx
+++ b/master/_downloads/3ff17f81b53f236f721f6f49d2ff19bb/Audit-AddABC.xlsx
@@ -436,6 +436,7 @@
   <cols>
     <col width="2.14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -642,14 +643,13 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
@@ -711,7 +711,7 @@
   <cols>
     <col width="2.14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="41" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -830,7 +830,7 @@
   <cols>
     <col width="2.14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -949,7 +949,7 @@
   <cols>
     <col width="2.14" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>

--- a/master/_downloads/3ff17f81b53f236f721f6f49d2ff19bb/Audit-AddABC.xlsx
+++ b/master/_downloads/3ff17f81b53f236f721f6f49d2ff19bb/Audit-AddABC.xlsx
@@ -12,7 +12,8 @@
     <sheet name="_add_a_b" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="_add_ab_c" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Output" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="__footings__" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Config" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="__footings__" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -980,7 +981,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Config:</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>show_signature</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>show_docstring</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>show_steps</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>step_config</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>show_method_name</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>show_docstring</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>show_uses</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>show_impacts</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>show_output</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>show_metadata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,50 +1142,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>mapping</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>mapping</t>
+          <t>dtype</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>end_point</t>
+          <t>row_start</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>column_name</t>
+          <t>col_start</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>dtype</t>
+          <t>row_end</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>stable</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>row_start</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>col_start</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>row_end</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
         <is>
           <t>col_end</t>
         </is>
@@ -1053,24 +1179,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
+          <t>/name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1082,24 +1208,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
+          <t>/name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1111,24 +1237,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SIGNATURE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
+          <t>/signature</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1140,24 +1266,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SIGNATURE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
+          <t>/signature</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1169,24 +1295,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="G6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1198,24 +1324,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="G7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1227,24 +1353,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="K8" t="n">
+      <c r="G8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1256,24 +1382,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="G9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1285,24 +1411,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="G10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1314,24 +1440,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
         <v>10</v>
       </c>
-      <c r="K11" t="n">
+      <c r="G11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1343,24 +1469,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="K12" t="n">
+      <c r="G12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1372,24 +1498,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
         <v>12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="G13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1401,24 +1527,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
         <v>13</v>
       </c>
-      <c r="K14" t="n">
+      <c r="G14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1430,24 +1556,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
         <v>14</v>
       </c>
-      <c r="K15" t="n">
+      <c r="G15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1459,24 +1585,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="n">
+      <c r="G16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1488,24 +1614,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
         <v>16</v>
       </c>
-      <c r="K17" t="n">
+      <c r="G17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1517,24 +1643,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
         <v>17</v>
       </c>
-      <c r="K18" t="n">
+      <c r="G18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1546,24 +1672,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
         <v>18</v>
       </c>
-      <c r="K19" t="n">
+      <c r="G19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1575,24 +1701,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
         <v>19</v>
       </c>
-      <c r="K20" t="n">
+      <c r="G20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1604,24 +1730,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
         <v>20</v>
       </c>
-      <c r="K21" t="n">
+      <c r="G21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1633,24 +1759,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
         <v>21</v>
       </c>
-      <c r="K22" t="n">
+      <c r="G22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1662,24 +1788,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
         <v>22</v>
       </c>
-      <c r="K23" t="n">
+      <c r="G23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1691,24 +1817,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
         <v>23</v>
       </c>
-      <c r="K24" t="n">
+      <c r="G24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1720,24 +1846,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
         <v>24</v>
       </c>
-      <c r="K25" t="n">
+      <c r="G25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1749,24 +1875,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
         <v>25</v>
       </c>
-      <c r="K26" t="n">
+      <c r="G26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1778,24 +1904,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
         <v>26</v>
       </c>
-      <c r="K27" t="n">
+      <c r="G27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1807,24 +1933,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
         <v>27</v>
       </c>
-      <c r="K28" t="n">
+      <c r="G28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1836,24 +1962,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
         <v>28</v>
       </c>
-      <c r="K29" t="n">
+      <c r="G29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1865,24 +1991,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
         <v>29</v>
       </c>
-      <c r="K30" t="n">
+      <c r="G30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1894,24 +2020,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
         <v>30</v>
       </c>
-      <c r="K31" t="n">
+      <c r="G31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1923,24 +2049,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
+          <t>/docstring</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>32</v>
       </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
         <v>32</v>
       </c>
-      <c r="K32" t="n">
+      <c r="G32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1952,24 +2078,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
+          <t>/instantiation</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1981,34 +2107,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
+          <t>/instantiation/parameter.a</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/parameter.a/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>KEY</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2020,34 +2136,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
+          <t>/instantiation/parameter.a</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/parameter.a/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2059,34 +2165,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
+          <t>/instantiation/parameter.b</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/parameter.b/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>KEY</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2098,34 +2194,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
+          <t>/instantiation/parameter.b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/parameter.b/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2137,34 +2223,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
+          <t>/instantiation/parameter.c</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/parameter.c/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>KEY</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4</v>
-      </c>
-      <c r="K38" t="n">
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2176,34 +2252,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INSTANTIATION</t>
+          <t>/instantiation/parameter.c</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/parameter.c/</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2215,24 +2281,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" t="n">
+          <t>/steps/_add_a_b/name</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2244,24 +2310,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" t="n">
+          <t>/steps/_add_a_b/name</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2273,24 +2339,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MTEHOD_NAME</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" t="n">
+          <t>/steps/_add_a_b/method_name</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2302,24 +2368,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MTEHOD_NAME</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4</v>
-      </c>
-      <c r="K43" t="n">
+          <t>/steps/_add_a_b/method_name</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2331,24 +2397,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
+          <t>/steps/_add_a_b/docstring</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
         <v>6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="G44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2360,24 +2426,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
+          <t>/steps/_add_a_b/docstring</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>6</v>
       </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
         <v>6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="G45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2389,24 +2455,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USES</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
+          <t>/steps/_add_a_b/uses</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>8</v>
       </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
         <v>8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="G46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2418,24 +2484,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>USES</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+          <t>/steps/_add_a_b/uses</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>8</v>
       </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="n">
         <v>8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="G47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2447,24 +2513,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IMPACTS</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
+          <t>/steps/_add_a_b/impacts</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
         <v>10</v>
       </c>
-      <c r="K48" t="n">
+      <c r="G48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2476,24 +2542,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMPACTS</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
+          <t>/steps/_add_a_b/impacts</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
         <v>10</v>
       </c>
-      <c r="K49" t="n">
+      <c r="G49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2505,24 +2571,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>METADATA</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
+          <t>/steps/_add_a_b/metadata</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
         <v>12</v>
       </c>
-      <c r="K50" t="n">
+      <c r="G50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2534,24 +2600,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>METADATA</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
+          <t>/steps/_add_a_b/metadata</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>12</v>
       </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
         <v>12</v>
       </c>
-      <c r="K51" t="n">
+      <c r="G51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2563,24 +2629,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
+          <t>/steps/_add_a_b/output</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>14</v>
       </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
         <v>14</v>
       </c>
-      <c r="K52" t="n">
+      <c r="G52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2592,34 +2658,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
+          <t>/steps/_add_a_b/output/intermediate.ab</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/intermediate.ab/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>KEY</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>14</v>
       </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
         <v>14</v>
       </c>
-      <c r="K53" t="n">
+      <c r="G53" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2631,34 +2687,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
+          <t>/steps/_add_a_b/output/intermediate.ab</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/intermediate.ab/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="D54" t="n">
         <v>14</v>
       </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
         <v>14</v>
       </c>
-      <c r="K54" t="n">
+      <c r="G54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2670,24 +2716,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2</v>
-      </c>
-      <c r="K55" t="n">
+          <t>/steps/_add_ab_c/name</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2699,24 +2745,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" t="n">
+          <t>/steps/_add_ab_c/name</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2728,24 +2774,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MTEHOD_NAME</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4</v>
-      </c>
-      <c r="K57" t="n">
+          <t>/steps/_add_ab_c/method_name</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2757,24 +2803,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MTEHOD_NAME</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4</v>
-      </c>
-      <c r="K58" t="n">
+          <t>/steps/_add_ab_c/method_name</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2786,24 +2832,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
+          <t>/steps/_add_ab_c/docstring</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>6</v>
       </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
         <v>6</v>
       </c>
-      <c r="K59" t="n">
+      <c r="G59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2815,24 +2861,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DOCSTRING</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
+          <t>/steps/_add_ab_c/docstring</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>6</v>
       </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
         <v>6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="G60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2844,24 +2890,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USES</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
+          <t>/steps/_add_ab_c/uses</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>8</v>
       </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
         <v>8</v>
       </c>
-      <c r="K61" t="n">
+      <c r="G61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2873,24 +2919,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>USES</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
+          <t>/steps/_add_ab_c/uses</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>8</v>
       </c>
-      <c r="I62" t="n">
-        <v>3</v>
-      </c>
-      <c r="J62" t="n">
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
         <v>8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="G62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2902,24 +2948,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IMPACTS</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
+          <t>/steps/_add_ab_c/impacts</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>10</v>
       </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
         <v>10</v>
       </c>
-      <c r="K63" t="n">
+      <c r="G63" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2931,24 +2977,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IMPACTS</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
+          <t>/steps/_add_ab_c/impacts</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>10</v>
       </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
         <v>10</v>
       </c>
-      <c r="K64" t="n">
+      <c r="G64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2960,24 +3006,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>METADATA</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
+          <t>/steps/_add_ab_c/metadata</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>12</v>
       </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
         <v>12</v>
       </c>
-      <c r="K65" t="n">
+      <c r="G65" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2989,24 +3035,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>METADATA</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
+          <t>/steps/_add_ab_c/metadata</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>12</v>
       </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
         <v>12</v>
       </c>
-      <c r="K66" t="n">
+      <c r="G66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3018,24 +3064,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
+          <t>/steps/_add_ab_c/output</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>14</v>
       </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
         <v>14</v>
       </c>
-      <c r="K67" t="n">
+      <c r="G67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3047,34 +3093,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
+          <t>/steps/_add_ab_c/output/return.abc</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/return.abc/</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>KEY</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>14</v>
       </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
         <v>14</v>
       </c>
-      <c r="K68" t="n">
+      <c r="G68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3086,34 +3122,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
+          <t>/steps/_add_ab_c/output/return.abc</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/return.abc/</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="D69" t="n">
         <v>14</v>
       </c>
-      <c r="I69" t="n">
-        <v>4</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="n">
         <v>14</v>
       </c>
-      <c r="K69" t="n">
+      <c r="G69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3125,24 +3151,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2</v>
-      </c>
-      <c r="K70" t="n">
+          <t>/output</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3154,34 +3180,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
+          <t>/output/abc</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/abc/</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>KEY</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>&lt;class 'str'&gt;</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2</v>
-      </c>
-      <c r="K71" t="n">
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3193,35 +3209,605 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>OUTPUT</t>
+          <t>/output/abc</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/abc/</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>&lt;class 'int'&gt;</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4</v>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/config</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>/config/show_signature</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>/config/show_signature</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>/config/show_docstring</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>/config/show_docstring</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>/config/show_steps</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>/config/show_steps</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>/config/step_config</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_method_name</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_method_name</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_docstring</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_docstring</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_uses</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_uses</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_impacts</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_impacts</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_output</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_output</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_metadata</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>/config/step_config/show_metadata</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>&lt;class 'str'&gt;</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
